--- a/test/test_metadata.xlsx
+++ b/test/test_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tilliedunham/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tilliedunham/Desktop/OrbiSeq/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394E7F8D-A6EF-774F-8B16-EE699A2A8100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B210E1C0-4F95-4B4F-95CE-72D7F71CB26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="960" windowWidth="25440" windowHeight="15400" xr2:uid="{D5FDF35F-C226-47A5-9BF2-786F5A743106}"/>
+    <workbookView xWindow="2060" yWindow="2800" windowWidth="25440" windowHeight="15400" xr2:uid="{D5FDF35F-C226-47A5-9BF2-786F5A743106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>BTV3_CO2015</t>
-  </si>
-  <si>
     <t>Serotype</t>
   </si>
   <si>
@@ -52,36 +49,6 @@
     <t>Bluetongue_virus</t>
   </si>
   <si>
-    <t>PQ584054</t>
-  </si>
-  <si>
-    <t>PQ584055</t>
-  </si>
-  <si>
-    <t>PQ584056</t>
-  </si>
-  <si>
-    <t>PQ584057</t>
-  </si>
-  <si>
-    <t>PQ584058</t>
-  </si>
-  <si>
-    <t>PQ584059</t>
-  </si>
-  <si>
-    <t>PQ584060</t>
-  </si>
-  <si>
-    <t>PQ584061</t>
-  </si>
-  <si>
-    <t>PQ584062</t>
-  </si>
-  <si>
-    <t>PQ584063</t>
-  </si>
-  <si>
     <t>GenBank_Acession</t>
   </si>
   <si>
@@ -103,14 +70,47 @@
     <t>Colorado</t>
   </si>
   <si>
-    <t>Dairy_Cattle</t>
+    <t>BTV17_CO2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OQ798198 </t>
+  </si>
+  <si>
+    <t>OQ798199</t>
+  </si>
+  <si>
+    <t>OQ798200</t>
+  </si>
+  <si>
+    <t>OQ798201</t>
+  </si>
+  <si>
+    <t>OQ798202</t>
+  </si>
+  <si>
+    <t>OQ798203</t>
+  </si>
+  <si>
+    <t>OQ798204</t>
+  </si>
+  <si>
+    <t>OQ798205</t>
+  </si>
+  <si>
+    <t>OQ798206</t>
+  </si>
+  <si>
+    <t>OQ798207</t>
+  </si>
+  <si>
+    <t>Sheep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +123,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="PalatinoLinotype"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,15 +185,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B0CF52-72C2-41C0-80A7-09E8477A6B92}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
@@ -522,324 +525,330 @@
     <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2018</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2018</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2018</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2018</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4">
-        <v>2015</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2015</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2015</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2015</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2015</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2015</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2015</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2015</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2015</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4">
-        <v>3</v>
-      </c>
-      <c r="D11" s="4">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="4">
-        <v>2015</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2018</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="26" spans="6:7">
+      <c r="F26" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
